--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07229DF4-4A40-DD48-8D7D-B8F352EAEA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD1A071-D044-524F-B33F-2A988F13185D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="10920" windowWidth="19700" windowHeight="15960" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -976,7 +976,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,11 +1229,11 @@
         <v>45992</v>
       </c>
       <c r="B14" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1245,14 +1245,14 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="B15" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>46001</v>
+        <v>46005</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Fall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD1A071-D044-524F-B33F-2A988F13185D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CBBCE0-582A-7048-A2F9-61740A14D0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="10920" windowWidth="19700" windowHeight="15960" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1680" yWindow="3680" windowWidth="19700" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>Linear Regression Part 2</t>
-  </si>
-  <si>
-    <t>1:00 pm</t>
   </si>
   <si>
     <t>Chapter 9 - Multiple Regression</t>
@@ -625,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,10 +669,10 @@
         <v>45894</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -914,7 +911,7 @@
         <v>45985</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>55</v>
@@ -975,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -993,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -1169,7 +1166,7 @@
         <v>45970</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -1188,7 +1185,7 @@
         <v>45977</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1217,7 +1214,7 @@
         <v>45991</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
